--- a/data_exports/cleaned_enrollments_data.xlsx
+++ b/data_exports/cleaned_enrollments_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5303487</v>
+        <v>5461105</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -539,57 +539,57 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45830.86609953704</v>
+        <v>45848.05543981482</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1.825277777777778</v>
+        <v>1.100277777777778</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>U18917765</t>
+          <t>U74421188</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>33.49</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>33.49</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5029701</v>
+        <v>5430421</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -602,57 +602,57 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45831.45100694444</v>
+        <v>45848.79341435185</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.027777777777778</v>
+        <v>5.013333333333334</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>U45189711</t>
+          <t>U44146712</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5211091</v>
+        <v>5463183</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -665,57 +665,57 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45831.20261574074</v>
+        <v>45847.80886574074</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2.187222222222222</v>
+        <v>2.273333333333333</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>U28485441</t>
+          <t>U04428333</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>34.27</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>34.27</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5252563</v>
+        <v>5455193</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -728,57 +728,57 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45831.15528935185</v>
+        <v>45849.62803240741</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.281666666666667</v>
+        <v>3.8925</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>U49169228</t>
+          <t>U34856277</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>33.44</t>
+          <t>49.62</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>33.44</t>
+          <t>49.62</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5243067</v>
+        <v>5430865</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -791,57 +791,57 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45829.84901620371</v>
+        <v>45847.56543981482</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2.623333333333334</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>U31638628</t>
+          <t>U35143484</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>34.62</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5274461</v>
+        <v>5455745</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -854,57 +854,57 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45820.87241898148</v>
+        <v>45847.6021875</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1.228888888888889</v>
+        <v>1.107222222222222</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>U08354499</t>
+          <t>U80150629</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>63.13</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>63.13</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5046387</v>
+        <v>5460725</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -917,57 +917,57 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45830.99597222222</v>
+        <v>45848.99476851852</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5.736944444444444</v>
+        <v>2.933611111111111</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>U97336385</t>
+          <t>U17581126</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>37.84</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>37.84</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5018111</v>
+        <v>5457355</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -980,57 +980,57 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45831.59586805556</v>
+        <v>45848.73710648148</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.239166666666667</v>
+        <v>1.665555555555555</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>U60844883</t>
+          <t>U76594284</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>91.49</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>91.49</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5341511</v>
+        <v>5477453</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1043,57 +1043,57 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45830.86540509259</v>
+        <v>45849.63467592592</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.719722222222222</v>
+        <v>4.007222222222222</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>U76744237</t>
+          <t>U43118329</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>96.80</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>36.76</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>96.80</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>36.76</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5254955</v>
+        <v>5459721</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1106,57 +1106,57 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45830.72030092592</v>
+        <v>45847.59469907408</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>6.138055555555556</v>
+        <v>3.238055555555555</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>U67616951</t>
+          <t>U02313205</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>30.27</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>30.27</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5078245</v>
+        <v>5459685</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1169,57 +1169,57 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45831.14643518518</v>
+        <v>45849.72796296296</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>9.246388888888889</v>
+        <v>1.399166666666667</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>U39002975</t>
+          <t>U51449959</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>34.52</t>
+          <t>25.63</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>34.52</t>
+          <t>25.63</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5226673</v>
+        <v>5490299</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1232,57 +1232,57 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45831.14550925926</v>
+        <v>45849.09577546296</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8.659166666666666</v>
+        <v>3.904444444444445</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>U77353325</t>
+          <t>U01531964</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>83.59</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>29.87</t>
+          <t>24.86</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>83.59</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>29.87</t>
+          <t>24.86</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5285177</v>
+        <v>5477499</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1295,57 +1295,57 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45831.64890046296</v>
+        <v>45848.0831712963</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>6.954722222222222</v>
+        <v>1.258333333333333</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>U68942917</t>
+          <t>U18738725</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>97.34</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>37.14</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>97.34</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>37.14</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5324167</v>
+        <v>5423489</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1358,57 +1358,57 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45831.46559027778</v>
+        <v>45847.81611111111</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>5.054444444444444</v>
+        <v>1.667777777777778</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>U73732665</t>
+          <t>U84624664</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5266413</v>
+        <v>5472249</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1421,57 +1421,57 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45831.05311342593</v>
+        <v>45847.56755787037</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1.8425</v>
+        <v>1.986388888888889</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>U41890243</t>
+          <t>U92553543</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>95.62</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>95.62</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4845467</v>
+        <v>5463039</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1484,57 +1484,57 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45831.50153935186</v>
+        <v>45849.11145833333</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.038333333333333</v>
+        <v>2.840833333333333</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>U33752946</t>
+          <t>U86048436</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>74.27</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23.15</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>74.27</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>23.15</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4596715</v>
+        <v>5447867</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1547,57 +1547,57 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45828.92016203704</v>
+        <v>45848.74724537037</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6725</v>
+        <v>1.578055555555556</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>U96867910</t>
+          <t>U79139939</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>88.94</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>29.40</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>88.94</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>29.40</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5285071</v>
+        <v>5476707</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1610,57 +1610,57 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45831.23420138889</v>
+        <v>45847.60293981482</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>3.865277777777778</v>
+        <v>16.8825</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>U29422861</t>
+          <t>U56204068</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>32.97</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>32.97</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5314605</v>
+        <v>5446521</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1673,57 +1673,57 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45831.14244212963</v>
+        <v>45848.03944444445</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1.2075</v>
+        <v>3.073333333333333</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>U27224274</t>
+          <t>U34028673</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>82.98</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>31.53</t>
+          <t>15.10</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>82.98</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>31.53</t>
+          <t>15.10</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5341297</v>
+        <v>5444045</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1736,57 +1736,57 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45830.88964120371</v>
+        <v>45847.58949074074</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>2.219166666666667</v>
+        <v>2.537777777777778</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>U53109452</t>
+          <t>U27804657</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5322963</v>
+        <v>5444997</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1799,57 +1799,57 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45831.04053240741</v>
+        <v>45849.62042824074</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5.626388888888889</v>
+        <v>1.201111111111111</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>U14123049</t>
+          <t>U87264562</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5234779</v>
+        <v>5435497</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1862,57 +1862,57 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45831.51216435185</v>
+        <v>45849.78327546296</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3.118333333333333</v>
+        <v>5.387222222222222</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>U06912183</t>
+          <t>U41333662</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>99.98</t>
+          <t>89.52</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>59.23</t>
+          <t>23.55</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>99.98</t>
+          <t>89.52</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>59.23</t>
+          <t>23.55</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5244275</v>
+        <v>5464229</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1925,57 +1925,57 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45831.11395833334</v>
+        <v>45848.38057870371</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>2.969166666666667</v>
+        <v>7.161388888888889</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>U45479877</t>
+          <t>U31878090</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>99.74</t>
+          <t>97.69</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>37.18</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>99.74</t>
+          <t>97.69</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>37.18</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5033061</v>
+        <v>5445225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1988,57 +1988,57 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45831.05185185185</v>
+        <v>45849.56491898148</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.370277777777778</v>
+        <v>14.32333333333333</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>U39049944</t>
+          <t>U85513252</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>85.92</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5287447</v>
+        <v>5462855</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2051,57 +2051,57 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45831.06556712963</v>
+        <v>45847.63947916667</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>3.244722222222222</v>
+        <v>10.78972222222222</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>U15697663</t>
+          <t>U04008596</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>50.74</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>50.74</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5277805</v>
+        <v>5489989</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2114,57 +2114,57 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45831.42396990741</v>
+        <v>45848.92805555555</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.188055555555556</v>
+        <v>1.809166666666667</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>U41939870</t>
+          <t>U13049719</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>33.16</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>33.16</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5268281</v>
+        <v>5445015</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2177,57 +2177,57 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45831.1206712963</v>
+        <v>45849.78873842592</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.879444444444444</v>
+        <v>5.261944444444445</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>U84591109</t>
+          <t>U44650340</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>97.04</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>31.37</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>97.04</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>31.37</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5321711</v>
+        <v>5447619</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2240,57 +2240,57 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45823.32038194445</v>
+        <v>45848.74439814815</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.210277777777778</v>
+        <v>4.226666666666667</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>U34518321</t>
+          <t>U34125866</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>32.86</t>
+          <t>83.95</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>24.13</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>32.86</t>
+          <t>83.95</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>24.13</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5342207</v>
+        <v>5425419</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2303,57 +2303,57 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45831.09182870371</v>
+        <v>45849.73298611111</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4.536666666666667</v>
+        <v>3.104722222222222</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>U80124108</t>
+          <t>U89866343</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>86.23</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>86.23</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5255659</v>
+        <v>5509671</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2366,57 +2366,57 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45831.1658912037</v>
+        <v>45847.61751157408</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>2.273333333333333</v>
+        <v>2.414166666666667</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>U81618490</t>
+          <t>U33507894</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>86.93</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>86.93</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5249109</v>
+        <v>5441293</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2429,57 +2429,57 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45831.13877314814</v>
+        <v>45849.77949074074</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10.62388888888889</v>
+        <v>5.941388888888889</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>U41730465</t>
+          <t>U24356879</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>32.57</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>32.57</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4995979</v>
+        <v>5449907</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2492,57 +2492,57 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45831.18344907407</v>
+        <v>45849.76997685185</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.773888888888889</v>
+        <v>3.0925</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>U14675155</t>
+          <t>U08894019</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>99.08</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>32.63</t>
+          <t>22.65</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>99.08</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>32.63</t>
+          <t>22.65</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5260413</v>
+        <v>5488551</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2555,57 +2555,57 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45831.50052083333</v>
+        <v>45849.69392361111</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.551388888888889</v>
+        <v>3.124444444444444</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>U61370929</t>
+          <t>U32417601</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>80.97</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>42.09</t>
+          <t>14.52</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>80.97</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>42.09</t>
+          <t>14.52</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5371577</v>
+        <v>5459463</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2618,57 +2618,57 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45831.06510416666</v>
+        <v>45849.13179398148</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>10.88027777777778</v>
+        <v>1.784722222222222</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>U91969544</t>
+          <t>U44611120</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>99.69</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>69.78</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>99.69</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>69.78</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5305513</v>
+        <v>5501311</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2681,57 +2681,57 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45830.90195601852</v>
+        <v>45848.21846064815</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1.456388888888889</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>U88759345</t>
+          <t>U75197896</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>31.49</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>31.49</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5237497</v>
+        <v>5445241</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2744,57 +2744,57 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45831.25148148148</v>
+        <v>45847.83398148148</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>3.228055555555556</v>
+        <v>1.823333333333333</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>U80880708</t>
+          <t>U64836173</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>84.83</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>30.44</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>84.83</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>30.44</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5159167</v>
+        <v>5458329</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2807,57 +2807,57 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45831.1652662037</v>
+        <v>45848.97655092592</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>10.42638888888889</v>
+        <v>2.354444444444444</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>U44206566</t>
+          <t>U15555805</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>52.31</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>52.31</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5075195</v>
+        <v>5487129</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2870,57 +2870,57 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45831.04298611111</v>
+        <v>45847.82582175926</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>3.39</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>U90358542</t>
+          <t>U16616545</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>32.37</t>
+          <t>31.93</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>32.37</t>
+          <t>31.93</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5266969</v>
+        <v>5462903</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2933,57 +2933,57 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45831.0190162037</v>
+        <v>45847.5974074074</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>7.255833333333333</v>
+        <v>1.709444444444445</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>U50645211</t>
+          <t>U74277121</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>96.97</t>
+          <t>50.77</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>38.76</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>96.97</t>
+          <t>50.77</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>38.76</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5269555</v>
+        <v>5459915</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2996,57 +2996,57 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45831.09934027777</v>
+        <v>45849.06736111111</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.1575</v>
+        <v>3.530555555555555</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>U06953722</t>
+          <t>U69599253</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>97.68</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>15.10</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>97.68</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>15.10</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5368843</v>
+        <v>5445265</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3059,57 +3059,57 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45831.06836805555</v>
+        <v>45848.78436342593</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.129722222222222</v>
+        <v>1.132777777777778</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>U46557619</t>
+          <t>U37563843</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>96.41</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>32.17</t>
+          <t>15.10</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>96.41</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>32.17</t>
+          <t>15.10</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5264859</v>
+        <v>5470105</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3122,57 +3122,57 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45831.61024305555</v>
+        <v>45848.81870370371</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.207222222222222</v>
+        <v>2.523888888888889</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>U63835894</t>
+          <t>U14290608</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5081859</v>
+        <v>5447047</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3185,57 +3185,57 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45831.15586805555</v>
+        <v>45849.78318287037</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.57</v>
+        <v>1.217777777777778</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>U53423096</t>
+          <t>U61622868</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>95.83</t>
+          <t>84.30</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>30.83</t>
+          <t>15.78</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>95.83</t>
+          <t>84.30</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>30.83</t>
+          <t>15.78</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5291005</v>
+        <v>5453441</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3248,57 +3248,57 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45831.55887731481</v>
+        <v>45848.95607638889</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6038888888888889</v>
+        <v>2.141666666666667</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>U27805163</t>
+          <t>U78625911</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>30.02</t>
+          <t>29.27</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>30.02</t>
+          <t>29.27</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5245161</v>
+        <v>5486665</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3311,57 +3311,57 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45831.64299768519</v>
+        <v>45847.58957175926</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>5.652222222222222</v>
+        <v>2.976388888888889</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>U37583642</t>
+          <t>U95838760</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>31.40</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>31.40</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5264631</v>
+        <v>5461189</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3374,57 +3374,57 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45821.09347222222</v>
+        <v>45849.19292824074</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.960833333333333</v>
+        <v>4.075277777777778</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>U15297659</t>
+          <t>U34392995</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>79.55</t>
+          <t>77.63</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>79.55</t>
+          <t>77.63</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4803449</v>
+        <v>5458119</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3437,61 +3437,61 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45830.81478009259</v>
+        <v>45847.73429398148</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2.081666666666667</v>
+        <v>2.046111111111111</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>U39727640</t>
+          <t>U52090888</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>68.67</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>25.73</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>68.67</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>25.73</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5052305</v>
+        <v>5551489</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3500,61 +3500,49 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45829.7559837963</v>
+        <v>45845.59688657407</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>3.4175</v>
+        <v>0.2288888888888889</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>U31686033</t>
-        </is>
-      </c>
+          <t>CGS2100.021U25</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28.54</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>28.54</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5259461</v>
+        <v>5551489</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3563,498 +3551,370 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45830.14793981481</v>
+        <v>45845.59688657407</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>7.043888888888889</v>
+        <v>0.2288888888888889</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>U97587853</t>
-        </is>
-      </c>
+          <t>CGS2100.002U25</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>55.34</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>55.34</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5371709</v>
+        <v>5009103</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45821.56518518519</v>
+        <v>45845.69819444444</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4427777777777778</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>U55471043</t>
+          <t>U88099159</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5333367</v>
+        <v>4957763</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45831.13578703703</v>
+        <v>45849.54942129629</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2.816111111111111</v>
+        <v>0.03583333333333334</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>U15014316</t>
+          <t>U64219048</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>95.64</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>95.64</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5400867</v>
+        <v>4876881</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45831.65495370371</v>
+        <v>45849.7930324074</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1.073055555555556</v>
+        <v>0.4030555555555556</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>U97600182</t>
+          <t>U14884292</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>31.59</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>31.59</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5263813</v>
+        <v>5106229</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45831.05277777778</v>
+        <v>45846.71395833333</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>3.1875</v>
+        <v>0.1425</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>U29828002</t>
+          <t>U95564252</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>95.45</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>95.45</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5328305</v>
+        <v>5061721</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>45830.77436342592</v>
-      </c>
-      <c r="E55" t="n">
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="n">
-        <v>2.821388888888889</v>
-      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>U99739631</t>
+          <t>U34561707</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>47.07</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>47.07</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5258093</v>
+        <v>964585</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45831.17064814815</v>
+        <v>45847.59443287037</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>4.243888888888889</v>
+        <v>5.233055555555556</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>U94667177</t>
+          <t>U84383097</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>37.86</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>37.86</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5242323</v>
+        <v>964585</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45831.57879629629</v>
+        <v>45847.59443287037</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>7.769722222222223</v>
+        <v>5.233055555555556</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>U37984660</t>
+          <t>U84383097</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>33.33</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>33.33</t>
-        </is>
-      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5042553</v>
+        <v>5303487</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4067,13 +3927,13 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45831.62135416667</v>
+        <v>45849.08805555556</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>4.679166666666666</v>
+        <v>2.129722222222222</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4087,37 +3947,37 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>U77102472</t>
+          <t>U18917765</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>38.08</t>
+          <t>59.98</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>38.08</t>
+          <t>59.98</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5385177</v>
+        <v>5029701</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4130,13 +3990,13 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45831.49038194444</v>
+        <v>45849.03844907408</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>5.219722222222222</v>
+        <v>5.368611111111111</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -4150,37 +4010,37 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>U62709630</t>
+          <t>U45189711</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>54.67</t>
+          <t>98.30</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>71.90</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>54.67</t>
+          <t>98.30</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>71.90</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5343251</v>
+        <v>5211091</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4193,13 +4053,13 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45831.15636574074</v>
+        <v>45848.16581018519</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>2.491111111111111</v>
+        <v>4.787222222222222</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4213,37 +4073,37 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>U41141717</t>
+          <t>U28485441</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>99.22</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>72.42</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>99.22</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>72.42</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5277021</v>
+        <v>5252563</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4256,13 +4116,13 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45831.4412037037</v>
+        <v>45849.77688657407</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>2.043888888888889</v>
+        <v>3.143611111111111</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4276,37 +4136,37 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>U34164657</t>
+          <t>U49169228</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>98.05</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>38.53</t>
+          <t>71.77</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>98.05</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>38.53</t>
+          <t>71.77</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5418569</v>
+        <v>5243067</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4319,13 +4179,13 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45831.07778935185</v>
+        <v>45849.70978009259</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>3.080833333333334</v>
+        <v>4.1975</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4339,37 +4199,37 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>U92055575</t>
+          <t>U31638628</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>98.40</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>37.05</t>
+          <t>65.51</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>98.40</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>37.05</t>
+          <t>65.51</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5237007</v>
+        <v>5274461</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4382,13 +4242,13 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45831.56050925926</v>
+        <v>45848.87805555556</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2.925833333333333</v>
+        <v>1.228888888888889</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4402,37 +4262,37 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>U48397375</t>
+          <t>U08354499</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>49.68</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>49.68</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5332285</v>
+        <v>5046387</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4445,13 +4305,13 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45831.06508101852</v>
+        <v>45849.0828587963</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>20.05416666666667</v>
+        <v>8.386388888888888</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4465,37 +4325,37 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>U77131121</t>
+          <t>U97336385</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>96.13</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>46.86</t>
+          <t>76.03</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>96.13</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>46.86</t>
+          <t>76.03</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5230621</v>
+        <v>5018111</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4508,13 +4368,13 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45830.73362268518</v>
+        <v>45849.16549768519</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>4.1525</v>
+        <v>9.608055555555556</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4528,41 +4388,41 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>U49804919</t>
+          <t>U60844883</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>50.38</t>
+          <t>68.13</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>50.38</t>
+          <t>68.13</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5537663</v>
+        <v>5341511</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>StudentViewEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4571,13 +4431,13 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45826.0434375</v>
+        <v>45848.06200231481</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2722222222222222</v>
+        <v>5.668055555555555</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4589,54 +4449,58 @@
           <t>CGS2100.521U25</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>U76744237</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.72</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.72</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5009103</v>
+        <v>5254955</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45831.66184027777</v>
+        <v>45840.8825</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2541666666666667</v>
+        <v>6.513055555555556</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4650,40 +4514,56 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>U88099159</t>
+          <t>U67616951</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>60.03</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>60.03</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
       <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4957763</v>
+        <v>5078245</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45831.18165509259</v>
+        <v>45849.62717592593</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5472222222222223</v>
+        <v>10.75722222222222</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4697,40 +4577,56 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>U64219048</t>
+          <t>U39002975</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
       <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4876881</v>
+        <v>5226673</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45810.23439814815</v>
+        <v>45849.07619212963</v>
       </c>
       <c r="E69" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3002777777777778</v>
+        <v>9.739166666666666</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4744,40 +4640,56 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>U14884292</t>
+          <t>U77353325</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>56.36</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>56.36</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5106229</v>
+        <v>5285177</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45831.0669212963</v>
+        <v>45849.16427083333</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2.888611111111111</v>
+        <v>10.49027777777778</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4791,40 +4703,56 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>U95564252</t>
+          <t>U68942917</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
       <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5061721</v>
+        <v>5324167</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45800.62967592593</v>
+        <v>45849.24346064815</v>
       </c>
       <c r="E71" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>5.650555555555556</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4838,40 +4766,56 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>U34561707</t>
+          <t>U73732665</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>72.51</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>72.51</t>
+        </is>
+      </c>
       <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>964585</v>
+        <v>5266413</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45831.0659375</v>
+        <v>45849.13818287037</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>22.61583333333333</v>
+        <v>3.047777777777778</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4885,17 +4829,3461 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
+          <t>U41890243</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>72.49</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>72.49</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4845467</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45848.07916666667</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.389444444444444</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>U33752946</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4596715</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45849.78936342592</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.925277777777778</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>U96867910</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>57.53</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>57.53</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5285071</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45848.16868055556</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4.468611111111112</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>U29422861</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5314605</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45849.78546296297</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.142222222222222</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>U27224274</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5341297</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45848.81662037037</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3.823888888888889</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>U53109452</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5322963</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45849.13553240741</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6.611666666666666</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>U14123049</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5234779</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45849.03371527778</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.894166666666667</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>U06912183</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5244275</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45848.17709490741</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4.017222222222222</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>U45479877</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5033061</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45849.66097222222</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.016944444444444</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>U39049944</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>59.20</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>59.20</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5287447</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45849.05936342593</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.498333333333333</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>U15697663</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5277805</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45849.63199074074</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.5775</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>U41939870</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5268281</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45849.58421296296</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5.753333333333333</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>U84591109</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5321711</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45837.07935185185</v>
+      </c>
+      <c r="E85" t="n">
+        <v>12</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.210277777777778</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>U34518321</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5342207</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45848.72769675926</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6.168611111111111</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>U80124108</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5255659</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45849.75398148148</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.729444444444444</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>U81618490</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5249109</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45836.10209490741</v>
+      </c>
+      <c r="E88" t="n">
+        <v>13</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10.73166666666667</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>U41730465</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>63.39</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>46.09</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>63.39</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>46.09</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4995979</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45848.16738425926</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.8075</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>U14675155</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5260413</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45845.10123842592</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4.566944444444444</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>U61370929</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5371577</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45848.48630787037</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>U91969544</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5305513</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45849.05168981481</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.605277777777778</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>U88759345</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5237497</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45848.84982638889</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4.659722222222222</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>U80880708</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>67.91</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>67.91</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5159167</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45849.01105324074</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12.00361111111111</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>U44206566</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>69.17</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>69.17</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5075195</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45849.16646990741</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4.629722222222222</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>U90358542</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>70.77</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>70.77</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5266969</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45847.72584490741</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>U50645211</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5269555</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45849.10891203704</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7.931666666666667</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>U06953722</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5368843</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45849.72017361111</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>U46557619</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5264859</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45849.11650462963</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.184444444444444</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>U63835894</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>73.03</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>51.84</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>73.03</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>51.84</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5081859</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45849.16591435186</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>U53423096</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5291005</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45849.62373842593</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.051944444444444</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>U27805163</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>51.84</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>51.84</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>5245161</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45849.72552083333</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.796666666666667</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>U37583642</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>68.10</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>68.10</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>5264631</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45848.73466435185</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3.273611111111111</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>U15297659</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>51.55</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>51.55</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4803449</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45848.83810185185</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.977777777777778</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>U39727640</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5052305</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45849.32298611111</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5.204166666666667</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>U31686033</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5259461</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45849.7196875</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7.345833333333333</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>U97587853</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>96.68</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>96.68</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>5371709</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45821.56518518519</v>
+      </c>
+      <c r="E107" t="n">
+        <v>28</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.4427777777777778</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>U55471043</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>5333367</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45849.12648148148</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>8.016388888888889</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>U15014316</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5400867</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45849.11047453704</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.063333333333333</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>U97600182</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>68.67</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>68.67</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>5263813</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45849.6502662037</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3.589166666666667</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>U29828002</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>65.94</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>65.94</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>5328305</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45849.64170138889</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>U99739631</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5258093</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45849.24353009259</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6.651388888888889</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>U94667177</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>5242323</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45849.49372685186</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15.74944444444444</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>U37984660</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>5042553</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45848.85939814815</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5.453888888888889</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>U77102472</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5385177</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45847.86612268518</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5.703611111111111</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>U62709630</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>5343251</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45849.09184027778</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.238611111111111</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>U41141717</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>5277021</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45848.74017361111</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.141666666666667</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>U34164657</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5418569</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45849.77928240741</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3.716944444444445</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>U92055575</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5237007</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45848.55568287037</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7.3625</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>U48397375</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5332285</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45848.75288194444</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>22.57722222222222</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>U77131121</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5230621</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45848.95271990741</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4.983333333333333</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>U49804919</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>5537663</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>StudentViewEnrollment</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>StudentEnrollment</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45826.0434375</v>
+      </c>
+      <c r="E122" t="n">
+        <v>23</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>5009103</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45849.61446759259</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.2541666666666667</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>U88099159</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>4957763</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45847.0652662037</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.828888888888889</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>U64219048</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4876881</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45849.7930787037</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>U14884292</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5106229</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45846.91260416667</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11.86777777777778</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>U95564252</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5061721</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45838.77513888889</v>
+      </c>
+      <c r="E127" t="n">
+        <v>10</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>U34561707</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>964585</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TeacherEnrollment</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>TeacherEnrollment</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45849.59358796296</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>29.48361111111111</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
           <t>U84383097</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_exports/cleaned_enrollments_data.xlsx
+++ b/data_exports/cleaned_enrollments_data.xlsx
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45849.7930324074</v>
+        <v>45849.80597222222</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45849.07619212963</v>
+        <v>45849.79605324074</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45849.78936342592</v>
+        <v>45849.80369212963</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>2.925277777777778</v>
+        <v>3.268055555555556</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4961,24 +4961,24 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>80.53</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>57.53</t>
+          <t>58.45</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>80.53</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>57.53</t>
+          <t>58.45</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45849.7930787037</v>
+        <v>45849.80604166666</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>

--- a/data_exports/cleaned_enrollments_data.xlsx
+++ b/data_exports/cleaned_enrollments_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45848.05543981482</v>
+        <v>45859.62804398148</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.100277777777778</v>
+        <v>2.118888888888889</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -565,24 +565,24 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>29.81</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>29.81</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45848.79341435185</v>
+        <v>45857.81793981481</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>5.013333333333334</v>
+        <v>5.538055555555555</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -628,24 +628,24 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>96.19</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>30.37</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>96.19</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>30.37</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45847.80886574074</v>
+        <v>45859.60306712963</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.273333333333333</v>
+        <v>2.439166666666666</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -691,24 +691,24 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>83.33</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>17.65</t>
+          <t>23.18</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>83.33</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>17.65</t>
+          <t>23.18</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45849.62803240741</v>
+        <v>45859.60295138889</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.8925</v>
+        <v>4.2325</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -754,24 +754,24 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>95.89</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>49.62</t>
+          <t>45.68</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>95.89</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>49.62</t>
+          <t>45.68</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45847.56543981482</v>
+        <v>45859.59982638889</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5533333333333333</v>
+        <v>0.5927777777777777</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -817,24 +817,24 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>23.16</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>23.16</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -854,13 +854,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45847.6021875</v>
+        <v>45858.66373842592</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.107222222222222</v>
+        <v>1.819166666666667</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -880,24 +880,24 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>26.56</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>26.56</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45848.99476851852</v>
+        <v>45859.14892361111</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.933611111111111</v>
+        <v>3.723611111111111</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -943,24 +943,24 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.39</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>47.09</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.39</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>47.09</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -980,13 +980,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45848.73710648148</v>
+        <v>45859.09912037037</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.665555555555555</v>
+        <v>3.1075</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1006,24 +1006,24 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>77.02</t>
+          <t>41.62</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>18.37</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>77.02</t>
+          <t>41.62</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>18.37</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1043,13 +1043,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45849.63467592592</v>
+        <v>45859.56491898148</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.007222222222222</v>
+        <v>5.151666666666666</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1069,24 +1069,24 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>25.23</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>25.23</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45847.59469907408</v>
+        <v>45859.63033564815</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.238055555555555</v>
+        <v>5.633055555555556</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1132,24 +1132,24 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>96.62</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26.29</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>96.62</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>26.29</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45849.72796296296</v>
+        <v>45851.76115740741</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>1.399166666666667</v>
@@ -1195,24 +1195,24 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>77.04</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>25.63</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>77.04</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>25.63</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45849.09577546296</v>
+        <v>45859.62957175926</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.904444444444445</v>
+        <v>5.645277777777777</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1258,24 +1258,24 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>24.86</t>
+          <t>34.63</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>24.86</t>
+          <t>34.63</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45848.0831712963</v>
+        <v>45859.6199537037</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.258333333333333</v>
+        <v>1.905277777777778</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1321,24 +1321,24 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>85.13</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>24.18</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>85.13</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>24.18</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45847.81611111111</v>
+        <v>45858.85299768519</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.667777777777778</v>
+        <v>2.266111111111111</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1384,24 +1384,24 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>84.45</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>84.45</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>24.03</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45847.56755787037</v>
+        <v>45859.55833333333</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.986388888888889</v>
+        <v>2.164444444444444</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1447,24 +1447,24 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>86.30</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17.65</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>86.30</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>17.65</t>
+          <t>23.31</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -1484,13 +1484,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45849.11145833333</v>
+        <v>45859.61820601852</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.840833333333333</v>
+        <v>3.443888888888889</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1510,31 +1510,31 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>24.33</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>24.33</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5447867</v>
+        <v>5459867</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1547,13 +1547,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45848.74724537037</v>
+        <v>45856.20641203703</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>1.578055555555556</v>
+        <v>8.928888888888888</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1567,37 +1567,37 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>U79139939</t>
+          <t>U20279434</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>80.50</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>26.21</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>80.50</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>26.21</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5476707</v>
+        <v>5447867</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1610,13 +1610,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45847.60293981482</v>
+        <v>45859.6034375</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>16.8825</v>
+        <v>16.40305555555556</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1625,42 +1625,42 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>U56204068</t>
+          <t>U79139939</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>86.66</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>24.97</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>86.66</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>24.97</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5446521</v>
+        <v>5476707</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45848.03944444445</v>
+        <v>45859.62878472222</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.073333333333333</v>
+        <v>18.00333333333333</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1688,42 +1688,42 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>U34028673</t>
+          <t>U56204068</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>37.34</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>37.34</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5444045</v>
+        <v>5446521</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45847.58949074074</v>
+        <v>45859.62079861111</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.537777777777778</v>
+        <v>3.548333333333333</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1751,42 +1751,42 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>U27804657</t>
+          <t>U34028673</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>79.69</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>22.72</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>79.69</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>22.72</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5444997</v>
+        <v>5444045</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1799,13 +1799,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45849.62042824074</v>
+        <v>45859.60170138889</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.201111111111111</v>
+        <v>2.751111111111111</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1814,42 +1814,42 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>U87264562</t>
+          <t>U27804657</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>98.19</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>37.16</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>98.19</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>37.16</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5435497</v>
+        <v>5444997</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1862,13 +1862,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45849.78327546296</v>
+        <v>45856.89804398148</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>5.387222222222222</v>
+        <v>1.665277777777778</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1877,42 +1877,42 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>U41333662</t>
+          <t>U87264562</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>23.55</t>
+          <t>27.42</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>23.55</t>
+          <t>27.42</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5464229</v>
+        <v>5435497</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1925,13 +1925,13 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45848.38057870371</v>
+        <v>45859.62603009259</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>7.161388888888889</v>
+        <v>6.107222222222222</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1940,42 +1940,42 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>U31878090</t>
+          <t>U41333662</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>97.69</t>
+          <t>89.52</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>27.30</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>97.69</t>
+          <t>89.52</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>27.30</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5445225</v>
+        <v>5464229</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45849.56491898148</v>
+        <v>45859.63120370371</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.32333333333333</v>
+        <v>10.23027777777778</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2008,37 +2008,37 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>U85513252</t>
+          <t>U31878090</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>99.13</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>99.13</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>16.40</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5462855</v>
+        <v>5445225</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45847.63947916667</v>
+        <v>45856.12732638889</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>10.78972222222222</v>
+        <v>19.24333333333333</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2071,37 +2071,37 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>U04008596</t>
+          <t>U85513252</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>25.24</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>25.24</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5489989</v>
+        <v>5462855</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45848.92805555555</v>
+        <v>45859.62674768519</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.809166666666667</v>
+        <v>14.84055555555556</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2134,37 +2134,37 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>U13049719</t>
+          <t>U04008596</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>85.13</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>31.42</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>85.13</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>31.42</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5445015</v>
+        <v>5489989</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45849.78873842592</v>
+        <v>45859.57103009259</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>5.261944444444445</v>
+        <v>3.208888888888889</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2192,42 +2192,42 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>U44650340</t>
+          <t>U13049719</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>97.04</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>28.19</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>97.04</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>28.19</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5447619</v>
+        <v>5445015</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2240,13 +2240,13 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45848.74439814815</v>
+        <v>45859.61010416667</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.226666666666667</v>
+        <v>8.452777777777778</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2260,37 +2260,37 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>U34125866</t>
+          <t>U44650340</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>83.95</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>41.92</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>83.95</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>41.92</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5425419</v>
+        <v>5447619</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2303,13 +2303,13 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45849.73298611111</v>
+        <v>45859.55519675926</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>3.104722222222222</v>
+        <v>4.456666666666667</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2323,37 +2323,37 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>U89866343</t>
+          <t>U34125866</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>86.23</t>
+          <t>87.03</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>21.70</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>86.23</t>
+          <t>87.03</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>21.70</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5509671</v>
+        <v>5425419</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45847.61751157408</v>
+        <v>45859.62236111111</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.414166666666667</v>
+        <v>6.120555555555556</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2381,42 +2381,42 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>U33507894</t>
+          <t>U89866343</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>96.80</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>28.98</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>96.80</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>28.98</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5441293</v>
+        <v>5509671</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2429,13 +2429,13 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45849.77949074074</v>
+        <v>45859.6130787037</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.941388888888889</v>
+        <v>3.0425</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2444,42 +2444,42 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>U24356879</t>
+          <t>U33507894</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>31.91</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>31.91</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5449907</v>
+        <v>5441293</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2492,13 +2492,13 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45849.76997685185</v>
+        <v>45856.77885416667</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>3.0925</v>
+        <v>6.860277777777778</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2512,37 +2512,37 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>U08894019</t>
+          <t>U24356879</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>22.65</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>22.65</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5488551</v>
+        <v>5449907</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45849.69392361111</v>
+        <v>45859.60787037037</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.124444444444444</v>
+        <v>4.375555555555556</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2575,37 +2575,37 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>U32417601</t>
+          <t>U08894019</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>80.97</t>
+          <t>97.29</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>14.52</t>
+          <t>46.99</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>80.97</t>
+          <t>97.29</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>14.52</t>
+          <t>46.99</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5459463</v>
+        <v>5488551</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2618,13 +2618,13 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45849.13179398148</v>
+        <v>45859.61040509259</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.784722222222222</v>
+        <v>7.597777777777778</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2633,42 +2633,42 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>U44611120</t>
+          <t>U32417601</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5501311</v>
+        <v>5459463</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2681,13 +2681,13 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45848.21846064815</v>
+        <v>45859.62770833333</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9350000000000001</v>
+        <v>2.261388888888889</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2701,37 +2701,37 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>U75197896</t>
+          <t>U44611120</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>85.13</t>
+          <t>77.62</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>21.60</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>85.13</t>
+          <t>77.62</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>21.60</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5445241</v>
+        <v>5501311</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2744,13 +2744,13 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45847.83398148148</v>
+        <v>45859.62064814815</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.823333333333333</v>
+        <v>1.493333333333333</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2764,37 +2764,37 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>U64836173</t>
+          <t>U75197896</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>76.46</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>22.06</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>76.46</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>22.06</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5458329</v>
+        <v>5445241</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45848.97655092592</v>
+        <v>45859.62567129629</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.354444444444444</v>
+        <v>4.102222222222222</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2827,37 +2827,37 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>U15555805</t>
+          <t>U64836173</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>78.95</t>
+          <t>90.15</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>78.95</t>
+          <t>90.15</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5487129</v>
+        <v>5458329</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45847.82582175926</v>
+        <v>45859.60325231482</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.266666666666667</v>
+        <v>3.530277777777778</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2890,37 +2890,37 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>U16616545</t>
+          <t>U15555805</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>71.91</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>31.93</t>
+          <t>22.10</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>71.91</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>31.93</t>
+          <t>22.10</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5462903</v>
+        <v>5487129</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2933,13 +2933,13 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45847.5974074074</v>
+        <v>45859.03394675926</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.709444444444445</v>
+        <v>6.205277777777778</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2948,42 +2948,42 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>U74277121</t>
+          <t>U16616545</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>50.77</t>
+          <t>98.16</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>47.49</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>50.77</t>
+          <t>98.16</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>47.49</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5459915</v>
+        <v>5462903</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2996,13 +2996,13 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45849.06736111111</v>
+        <v>45859.57129629629</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3.530555555555555</v>
+        <v>2.065277777777778</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3011,42 +3011,42 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>U69599253</t>
+          <t>U74277121</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>25.30</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>25.30</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5445265</v>
+        <v>5459915</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3059,13 +3059,13 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45848.78436342593</v>
+        <v>45859.60086805555</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.132777777777778</v>
+        <v>4.768333333333334</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3079,37 +3079,37 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>U37563843</t>
+          <t>U69599253</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>23.45</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>23.45</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5470105</v>
+        <v>5445265</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3122,13 +3122,13 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45848.81870370371</v>
+        <v>45859.61564814814</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.523888888888889</v>
+        <v>1.882777777777778</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3137,42 +3137,42 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>U14290608</t>
+          <t>U37563843</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>25.20</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>25.20</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5447047</v>
+        <v>5470105</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3185,13 +3185,13 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45849.78318287037</v>
+        <v>45859.62439814815</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.217777777777778</v>
+        <v>3.428055555555555</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3205,37 +3205,37 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>U61622868</t>
+          <t>U14290608</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>84.30</t>
+          <t>90.77</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>15.78</t>
+          <t>24.25</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>84.30</t>
+          <t>90.77</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>15.78</t>
+          <t>24.25</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5453441</v>
+        <v>5447047</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3248,13 +3248,13 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45848.95607638889</v>
+        <v>45859.62346064814</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.141666666666667</v>
+        <v>3.480277777777778</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3268,37 +3268,37 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>U78625911</t>
+          <t>U61622868</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>73.57</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>29.27</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>73.57</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>29.27</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5486665</v>
+        <v>5453441</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45847.58957175926</v>
+        <v>45859.60914351852</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.976388888888889</v>
+        <v>2.516944444444444</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3326,42 +3326,42 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>U95838760</t>
+          <t>U78625911</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>99.33</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>37.53</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>99.33</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>37.53</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5461189</v>
+        <v>5486665</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3374,13 +3374,13 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45849.19292824074</v>
+        <v>45859.62677083333</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>4.075277777777778</v>
+        <v>3.933611111111111</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3389,42 +3389,42 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>U34392995</t>
+          <t>U95838760</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>77.63</t>
+          <t>82.34</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>77.63</t>
+          <t>82.34</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5458119</v>
+        <v>5461189</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3437,13 +3437,13 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45847.73429398148</v>
+        <v>45859.63163194444</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.046111111111111</v>
+        <v>5.495833333333334</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3452,46 +3452,46 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>U52090888</t>
+          <t>U34392995</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>43.67</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>43.67</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5551489</v>
+        <v>5458119</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>StudentViewEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45845.59688657407</v>
+        <v>45859.59840277778</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2288888888888889</v>
+        <v>3.129722222222222</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3518,20 +3518,32 @@
           <t>CGS2100.021U25</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>U52090888</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>25.90</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
@@ -3554,7 +3566,7 @@
         <v>45845.59688657407</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F50" t="n">
         <v>0.2288888888888889</v>
@@ -3566,7 +3578,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3589,26 +3601,26 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5009103</v>
+        <v>5551489</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45845.69819444444</v>
+        <v>45845.59688657407</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.2288888888888889</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3620,23 +3632,27 @@
           <t>CGS2100.002U25</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>U88099159</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4957763</v>
+        <v>5009103</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3649,13 +3665,13 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45849.54942129629</v>
+        <v>45849.85122685185</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03583333333333334</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3669,7 +3685,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>U64219048</t>
+          <t>U88099159</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -3683,7 +3699,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4876881</v>
+        <v>4957763</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3696,13 +3712,13 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45849.80597222222</v>
+        <v>45857.78738425926</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4030555555555556</v>
+        <v>0.3816666666666667</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3716,7 +3732,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>U14884292</t>
+          <t>U64219048</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -3730,7 +3746,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5106229</v>
+        <v>4876881</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3743,13 +3759,13 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45846.71395833333</v>
+        <v>45859.63210648148</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1425</v>
+        <v>0.6830555555555555</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3763,7 +3779,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>U95564252</t>
+          <t>U14884292</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -3777,7 +3793,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5061721</v>
+        <v>5106229</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3789,10 +3805,14 @@
           <t>TaEnrollment</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" s="2" t="n">
+        <v>45858.99600694444</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.195</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3806,7 +3826,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>U34561707</t>
+          <t>U95564252</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -3820,26 +3840,22 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>964585</v>
+        <v>5061721</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>45847.59443287037</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2</v>
-      </c>
+          <t>TaEnrollment</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>5.233055555555556</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3853,7 +3869,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>U84383097</t>
+          <t>U34561707</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -3880,13 +3896,13 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45847.59443287037</v>
+        <v>45859.5621875</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>5.233055555555556</v>
+        <v>6.229722222222223</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3895,7 +3911,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3914,70 +3930,54 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5303487</v>
+        <v>964585</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45849.08805555556</v>
+        <v>45859.5621875</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2.129722222222222</v>
+        <v>6.229722222222223</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>U18917765</t>
+          <t>U84383097</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>80.57</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>59.98</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>80.57</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>59.98</t>
-        </is>
-      </c>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5029701</v>
+        <v>5303487</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3990,13 +3990,13 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45849.03844907408</v>
+        <v>45856.34086805556</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>5.368611111111111</v>
+        <v>2.344722222222222</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -4010,37 +4010,37 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>U45189711</t>
+          <t>U18917765</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>98.30</t>
+          <t>86.15</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>73.05</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>98.30</t>
+          <t>86.15</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>73.05</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5211091</v>
+        <v>5029701</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45848.16581018519</v>
+        <v>45855.63825231481</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>4.787222222222222</v>
+        <v>6.709166666666667</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4073,37 +4073,37 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>U28485441</t>
+          <t>U45189711</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>72.42</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>72.42</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5252563</v>
+        <v>5211091</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4116,13 +4116,13 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45849.77688657407</v>
+        <v>45859.02380787037</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3.143611111111111</v>
+        <v>6.475833333333333</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4136,37 +4136,37 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>U49169228</t>
+          <t>U28485441</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>98.05</t>
+          <t>99.36</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>71.77</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>98.05</t>
+          <t>99.36</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>71.77</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5243067</v>
+        <v>5252563</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4179,13 +4179,13 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45849.70978009259</v>
+        <v>45859.05050925926</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>4.1975</v>
+        <v>3.475833333333334</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4199,37 +4199,37 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>U31638628</t>
+          <t>U49169228</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>98.27</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>65.51</t>
+          <t>81.77</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>98.27</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>65.51</t>
+          <t>81.77</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5274461</v>
+        <v>5243067</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45848.87805555556</v>
+        <v>45858.0790162037</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1.228888888888889</v>
+        <v>6.094444444444444</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4262,37 +4262,37 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>U08354499</t>
+          <t>U31638628</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>96.81</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>87.13</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>96.81</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>87.13</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5046387</v>
+        <v>5274461</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45849.0828587963</v>
+        <v>45853.87877314815</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>8.386388888888888</v>
+        <v>1.312222222222222</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4325,37 +4325,37 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>U97336385</t>
+          <t>U08354499</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>32.82</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>27.72</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>32.82</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>27.72</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5018111</v>
+        <v>5046387</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4368,13 +4368,13 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45849.16549768519</v>
+        <v>45858.58071759259</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>9.608055555555556</v>
+        <v>8.719444444444445</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4388,37 +4388,37 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>U60844883</t>
+          <t>U97336385</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>95.59</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>95.59</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5341511</v>
+        <v>5018111</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4431,13 +4431,13 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45848.06200231481</v>
+        <v>45859.02200231481</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>5.668055555555555</v>
+        <v>13.80277777777778</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4451,37 +4451,37 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>U76744237</t>
+          <t>U60844883</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5254955</v>
+        <v>5341511</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4494,13 +4494,13 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45840.8825</v>
+        <v>45857.65548611111</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>6.513055555555556</v>
+        <v>7.212222222222223</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4514,37 +4514,37 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>U67616951</t>
+          <t>U76744237</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>60.03</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>60.03</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5078245</v>
+        <v>5254955</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4557,13 +4557,13 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45849.62717592593</v>
+        <v>45856.81076388889</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>10.75722222222222</v>
+        <v>6.549444444444444</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4577,37 +4577,37 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>U39002975</t>
+          <t>U67616951</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>66.70</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>69.51</t>
+          <t>60.03</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>66.70</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>69.51</t>
+          <t>60.03</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5226673</v>
+        <v>5078245</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45849.79605324074</v>
+        <v>45859.58627314815</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>9.739166666666666</v>
+        <v>11.48833333333333</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4640,37 +4640,37 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>U77353325</t>
+          <t>U39002975</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>56.36</t>
+          <t>79.51</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>56.36</t>
+          <t>79.51</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5285177</v>
+        <v>5226673</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4683,13 +4683,13 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45849.16427083333</v>
+        <v>45859.35971064815</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>10.49027777777778</v>
+        <v>11.33416666666667</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4703,37 +4703,37 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>U68942917</t>
+          <t>U77353325</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>99.75</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>72.84</t>
+          <t>66.36</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>99.75</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>72.84</t>
+          <t>66.36</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5324167</v>
+        <v>5285177</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4746,13 +4746,13 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45849.24346064815</v>
+        <v>45858.7308449074</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>5.650555555555556</v>
+        <v>12.80361111111111</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4766,37 +4766,37 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>U73732665</t>
+          <t>U68942917</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>72.51</t>
+          <t>82.84</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>72.51</t>
+          <t>82.84</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5266413</v>
+        <v>5324167</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4809,13 +4809,13 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45849.13818287037</v>
+        <v>45859.14898148148</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>3.047777777777778</v>
+        <v>6.142777777777778</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4829,37 +4829,37 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>U41890243</t>
+          <t>U73732665</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>99.46</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>72.49</t>
+          <t>89.51</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>99.46</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>72.49</t>
+          <t>89.51</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4845467</v>
+        <v>5266413</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45848.07916666667</v>
+        <v>45858.89769675926</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1.389444444444444</v>
+        <v>4.275555555555556</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4892,37 +4892,37 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>U33752946</t>
+          <t>U41890243</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>42.47</t>
+          <t>99.44</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>33.97</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>42.47</t>
+          <t>99.44</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>33.97</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4596715</v>
+        <v>4845467</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45849.80369212963</v>
+        <v>45858.72424768518</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>3.268055555555556</v>
+        <v>1.646388888888889</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4955,37 +4955,37 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>U96867910</t>
+          <t>U33752946</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>80.53</t>
+          <t>53.82</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>58.45</t>
+          <t>48.43</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>80.53</t>
+          <t>53.82</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>58.45</t>
+          <t>48.43</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5285071</v>
+        <v>4596715</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4998,13 +4998,13 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45848.16868055556</v>
+        <v>45856.73671296296</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>4.468611111111112</v>
+        <v>3.630833333333333</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -5018,37 +5018,37 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>U29422861</t>
+          <t>U96867910</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>85.45</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>85.45</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5314605</v>
+        <v>5285071</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5061,13 +5061,13 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45849.78546296297</v>
+        <v>45859.02219907408</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>2.142222222222222</v>
+        <v>4.504166666666666</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -5081,37 +5081,37 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>U27224274</t>
+          <t>U29422861</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>75.57</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>75.57</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5341297</v>
+        <v>5314605</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5124,13 +5124,13 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45848.81662037037</v>
+        <v>45857.97074074074</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>3.823888888888889</v>
+        <v>2.723055555555555</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5144,37 +5144,37 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>U53109452</t>
+          <t>U27224274</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>99.94</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>76.94</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>99.94</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>76.94</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5322963</v>
+        <v>5341297</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5187,13 +5187,13 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45849.13553240741</v>
+        <v>45856.30025462963</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>6.611666666666666</v>
+        <v>5.139166666666667</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5207,37 +5207,37 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>U14123049</t>
+          <t>U53109452</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>97.22</t>
+          <t>99.94</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>71.10</t>
+          <t>82.95</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>97.22</t>
+          <t>99.94</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>71.10</t>
+          <t>82.95</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5234779</v>
+        <v>5322963</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5250,13 +5250,13 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45849.03371527778</v>
+        <v>45856.67368055556</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>3.894166666666667</v>
+        <v>7.541666666666667</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5270,37 +5270,37 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>U06912183</t>
+          <t>U14123049</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>99.98</t>
+          <t>98.23</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>72.98</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>99.98</t>
+          <t>98.23</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>72.98</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5244275</v>
+        <v>5234779</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5313,13 +5313,13 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45848.17709490741</v>
+        <v>45859.17806712963</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>4.017222222222222</v>
+        <v>4.515833333333333</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5333,37 +5333,37 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>U45479877</t>
+          <t>U06912183</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>97.92</t>
+          <t>99.98</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>71.52</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>97.92</t>
+          <t>99.98</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>71.52</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5033061</v>
+        <v>5244275</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5376,13 +5376,13 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45849.66097222222</v>
+        <v>45854.79864583333</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>3.016944444444444</v>
+        <v>4.361111111111111</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5396,37 +5396,37 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>U39049944</t>
+          <t>U45479877</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>78.41</t>
+          <t>98.36</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>59.20</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>78.41</t>
+          <t>98.36</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>59.20</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5287447</v>
+        <v>5033061</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5439,13 +5439,13 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45849.05936342593</v>
+        <v>45857.015</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>4.498333333333333</v>
+        <v>6.532222222222222</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -5459,37 +5459,37 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>U15697663</t>
+          <t>U39049944</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>76.36</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>65.20</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>76.36</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>65.20</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5277805</v>
+        <v>5287447</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45849.63199074074</v>
+        <v>45859.27159722222</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>2.5775</v>
+        <v>4.498333333333333</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5522,37 +5522,37 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>U41939870</t>
+          <t>U15697663</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>72.45</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>72.45</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5268281</v>
+        <v>5277805</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5565,13 +5565,13 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45849.58421296296</v>
+        <v>45857.64407407407</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>5.753333333333333</v>
+        <v>3.527222222222222</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5585,37 +5585,37 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>U84591109</t>
+          <t>U41939870</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>99.34</t>
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>99.34</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5321711</v>
+        <v>5268281</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5628,13 +5628,13 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45837.07935185185</v>
+        <v>45859.05246527777</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1.210277777777778</v>
+        <v>5.856111111111111</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5648,37 +5648,37 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>U34518321</t>
+          <t>U84591109</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>90.25</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>81.22</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>90.25</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>81.22</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5342207</v>
+        <v>5321711</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5691,13 +5691,13 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45848.72769675926</v>
+        <v>45837.07935185185</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F86" t="n">
-        <v>6.168611111111111</v>
+        <v>1.210277777777778</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -5711,37 +5711,37 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>U80124108</t>
+          <t>U34518321</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5255659</v>
+        <v>5342207</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5754,13 +5754,13 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45849.75398148148</v>
+        <v>45854.91934027777</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>2.729444444444444</v>
+        <v>6.657222222222222</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5774,37 +5774,37 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>U81618490</t>
+          <t>U80124108</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>70.36</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>70.36</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5249109</v>
+        <v>5255659</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45836.10209490741</v>
+        <v>45859.02866898148</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>10.73166666666667</v>
+        <v>5.304166666666666</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5837,37 +5837,37 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>U41730465</t>
+          <t>U81618490</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>63.39</t>
+          <t>85.96</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>46.09</t>
+          <t>77.36</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>63.39</t>
+          <t>85.96</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>46.09</t>
+          <t>77.36</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4995979</v>
+        <v>5249109</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5880,13 +5880,13 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45848.16738425926</v>
+        <v>45859.00879629629</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>4.8075</v>
+        <v>10.73166666666667</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5900,37 +5900,37 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>U14675155</t>
+          <t>U41730465</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>97.91</t>
+          <t>60.10</t>
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>71.37</t>
+          <t>55.48</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>97.91</t>
+          <t>60.10</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>71.37</t>
+          <t>55.48</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5260413</v>
+        <v>4995979</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5943,13 +5943,13 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45845.10123842592</v>
+        <v>45859.02127314815</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>4.566944444444444</v>
+        <v>7.320833333333334</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5963,37 +5963,37 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>U61370929</t>
+          <t>U14675155</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>98.19</t>
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>70.01</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>98.19</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>70.01</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5371577</v>
+        <v>5260413</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6006,13 +6006,13 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45848.48630787037</v>
+        <v>45857.89237268519</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>15.26</v>
+        <v>6.018611111111111</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -6026,37 +6026,37 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>U91969544</t>
+          <t>U61370929</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>95.59</t>
         </is>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>80.01</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>95.59</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>80.01</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5305513</v>
+        <v>5371577</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6069,13 +6069,13 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45849.05168981481</v>
+        <v>45859.0328125</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2.605277777777778</v>
+        <v>15.26</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -6089,37 +6089,37 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>U88759345</t>
+          <t>U91969544</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>63.33</t>
+          <t>99.76</t>
         </is>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>63.33</t>
+          <t>99.76</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5237497</v>
+        <v>5305513</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45848.84982638889</v>
+        <v>45858.7375462963</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>4.659722222222222</v>
+        <v>3.265555555555556</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -6152,37 +6152,37 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>U80880708</t>
+          <t>U88759345</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>76.52</t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>67.91</t>
+          <t>64.74</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>76.52</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>67.91</t>
+          <t>64.74</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5159167</v>
+        <v>5237497</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6195,13 +6195,13 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45849.01105324074</v>
+        <v>45858.1524537037</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>12.00361111111111</v>
+        <v>6.0025</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -6215,37 +6215,37 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>U44206566</t>
+          <t>U80880708</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>69.17</t>
+          <t>91.37</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>51.72</t>
+          <t>75.91</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>69.17</t>
+          <t>91.37</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>51.72</t>
+          <t>75.91</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5075195</v>
+        <v>5159167</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6258,13 +6258,13 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45849.16646990741</v>
+        <v>45859.13239583333</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>4.629722222222222</v>
+        <v>14.00777777777778</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -6278,37 +6278,37 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>U90358542</t>
+          <t>U44206566</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>97.21</t>
+          <t>70.59</t>
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>97.21</t>
+          <t>70.59</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5266969</v>
+        <v>5075195</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6321,13 +6321,13 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45847.72584490741</v>
+        <v>45858.72353009259</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>8.07</v>
+        <v>5.492222222222222</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -6341,37 +6341,37 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>U50645211</t>
+          <t>U90358542</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>95.30</t>
         </is>
       </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>78.77</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>95.30</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>78.77</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5269555</v>
+        <v>5266969</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6384,13 +6384,13 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45849.10891203704</v>
+        <v>45854.05131944444</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>7.931666666666667</v>
+        <v>8.364444444444445</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -6404,37 +6404,37 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>U06953722</t>
+          <t>U50645211</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>79.24</t>
+          <t>85.21</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>79.24</t>
+          <t>85.21</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5368843</v>
+        <v>5269555</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45849.72017361111</v>
+        <v>45859.03775462963</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>2.91</v>
+        <v>8.173333333333334</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -6467,37 +6467,37 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>U46557619</t>
+          <t>U06953722</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>99.15</t>
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>60.96</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>99.15</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>60.96</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5264859</v>
+        <v>5368843</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6510,13 +6510,13 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45849.11650462963</v>
+        <v>45859.13746527778</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2.184444444444444</v>
+        <v>4.143611111111111</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -6530,37 +6530,37 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>U63835894</t>
+          <t>U46557619</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>73.03</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>51.84</t>
+          <t>71.96</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>73.03</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>51.84</t>
+          <t>71.96</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5081859</v>
+        <v>5264859</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6573,13 +6573,13 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45849.16591435186</v>
+        <v>45854.96491898148</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>3.165</v>
+        <v>2.184444444444444</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -6593,37 +6593,37 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>U53423096</t>
+          <t>U63835894</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>70.81</t>
         </is>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>65.68</t>
+          <t>64.23</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>70.81</t>
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>65.68</t>
+          <t>64.23</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5291005</v>
+        <v>5081859</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6636,13 +6636,13 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45849.62373842593</v>
+        <v>45859.22498842593</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1.051944444444444</v>
+        <v>4.449722222222222</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -6656,37 +6656,37 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>U27805163</t>
+          <t>U53423096</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>64.80</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>51.84</t>
+          <t>74.68</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>64.80</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>51.84</t>
+          <t>74.68</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5245161</v>
+        <v>5291005</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6699,13 +6699,13 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45849.72552083333</v>
+        <v>45856.72513888889</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>8.796666666666667</v>
+        <v>1.359444444444444</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -6719,37 +6719,37 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>U37583642</t>
+          <t>U27805163</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>64.84</t>
         </is>
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>68.10</t>
+          <t>64.84</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>64.84</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>68.10</t>
+          <t>64.84</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5264631</v>
+        <v>5245161</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45848.73466435185</v>
+        <v>45859.5575</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>3.273611111111111</v>
+        <v>11.36583333333333</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -6782,37 +6782,37 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>U15297659</t>
+          <t>U37583642</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>72.13</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>51.55</t>
+          <t>85.10</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>72.13</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>51.55</t>
+          <t>85.10</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4803449</v>
+        <v>5264631</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6825,13 +6825,13 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45848.83810185185</v>
+        <v>45857.27657407407</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
-        <v>3.977777777777778</v>
+        <v>3.473333333333333</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -6845,37 +6845,37 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>U39727640</t>
+          <t>U15297659</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>86.78</t>
+          <t>75.76</t>
         </is>
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>63.17</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>86.78</t>
+          <t>75.76</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>63.17</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5052305</v>
+        <v>4803449</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45849.32298611111</v>
+        <v>45856.69028935185</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>5.204166666666667</v>
+        <v>5.721944444444444</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -6908,37 +6908,37 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>U31686033</t>
+          <t>U39727640</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>62.50</t>
+          <t>71.85</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>62.50</t>
+          <t>71.85</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5259461</v>
+        <v>5052305</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -6951,13 +6951,13 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45849.7196875</v>
+        <v>45859.03826388889</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>7.345833333333333</v>
+        <v>7.194166666666667</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -6971,37 +6971,37 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>U97587853</t>
+          <t>U31686033</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>96.68</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>77.34</t>
+          <t>72.76</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>96.68</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>77.34</t>
+          <t>72.76</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5371709</v>
+        <v>5259461</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7014,13 +7014,13 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45821.56518518519</v>
+        <v>45854.7725462963</v>
       </c>
       <c r="E107" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4427777777777778</v>
+        <v>8.691666666666666</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -7034,37 +7034,37 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>U55471043</t>
+          <t>U97587853</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>97.04</t>
         </is>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>97.04</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5333367</v>
+        <v>5371709</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45849.12648148148</v>
+        <v>45821.56518518519</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F108" t="n">
-        <v>8.016388888888889</v>
+        <v>0.4427777777777778</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -7097,37 +7097,37 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>U15014316</t>
+          <t>U55471043</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>66.26</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>66.26</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5400867</v>
+        <v>5333367</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7140,13 +7140,13 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45849.11047453704</v>
+        <v>45858.11854166666</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>2.063333333333333</v>
+        <v>8.938611111111111</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -7160,37 +7160,37 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>U97600182</t>
+          <t>U15014316</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>68.67</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>68.67</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5263813</v>
+        <v>5400867</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7203,13 +7203,13 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45849.6502662037</v>
+        <v>45856.6200925926</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>3.589166666666667</v>
+        <v>2.063333333333333</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -7223,37 +7223,37 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>U29828002</t>
+          <t>U97600182</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>65.94</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>65.94</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5328305</v>
+        <v>5263813</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -7266,13 +7266,13 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45849.64170138889</v>
+        <v>45856.67601851852</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>3.625</v>
+        <v>4.163611111111111</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -7286,37 +7286,37 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>U99739631</t>
+          <t>U29828002</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>98.30</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>79.45</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>98.30</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>79.45</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5258093</v>
+        <v>5328305</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45849.24353009259</v>
+        <v>45858.53054398148</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>6.651388888888889</v>
+        <v>3.755833333333333</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -7349,37 +7349,37 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>U94667177</t>
+          <t>U99739631</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>97.75</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>71.43</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>97.75</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>71.43</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5242323</v>
+        <v>5258093</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45849.49372685186</v>
+        <v>45859.0946875</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>15.74944444444444</v>
+        <v>7.875555555555556</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -7412,37 +7412,37 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>U37984660</t>
+          <t>U94667177</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>97.71</t>
         </is>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>65.79</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>97.71</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>65.79</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5042553</v>
+        <v>5242323</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -7455,13 +7455,13 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45848.85939814815</v>
+        <v>45859.45530092593</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>5.453888888888889</v>
+        <v>21.20694444444445</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -7475,37 +7475,37 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>U77102472</t>
+          <t>U37984660</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5385177</v>
+        <v>5042553</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7518,13 +7518,13 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45847.86612268518</v>
+        <v>45859.59209490741</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>5.703611111111111</v>
+        <v>6.192777777777778</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -7538,37 +7538,37 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>U62709630</t>
+          <t>U77102472</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>78.29</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>78.29</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5343251</v>
+        <v>5385177</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7581,13 +7581,13 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45849.09184027778</v>
+        <v>45853.87856481481</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F116" t="n">
-        <v>3.238611111111111</v>
+        <v>5.703611111111111</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -7601,37 +7601,37 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>U41141717</t>
+          <t>U62709630</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>40.51</t>
         </is>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>68.41</t>
+          <t>39.39</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>40.51</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>68.41</t>
+          <t>39.39</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5277021</v>
+        <v>5343251</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7644,13 +7644,13 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45848.74017361111</v>
+        <v>45857.55576388889</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>2.141666666666667</v>
+        <v>7.660833333333334</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -7664,37 +7664,37 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>U34164657</t>
+          <t>U41141717</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>97.47</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>97.47</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5418569</v>
+        <v>5277021</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -7707,13 +7707,13 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45849.77928240741</v>
+        <v>45856.7331712963</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>3.716944444444445</v>
+        <v>2.236666666666667</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -7727,37 +7727,37 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>U92055575</t>
+          <t>U34164657</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>68.89</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>68.89</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5237007</v>
+        <v>5418569</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -7770,13 +7770,13 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45848.55568287037</v>
+        <v>45858.9712037037</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>7.3625</v>
+        <v>4.323611111111111</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -7790,37 +7790,37 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>U48397375</t>
+          <t>U92055575</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>97.24</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>77.79</t>
+          <t>78.89</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>97.24</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>77.79</t>
+          <t>78.89</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5332285</v>
+        <v>5237007</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -7833,13 +7833,13 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45848.75288194444</v>
+        <v>45859.52597222223</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>22.57722222222222</v>
+        <v>7.400555555555556</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -7853,37 +7853,37 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>U77131121</t>
+          <t>U48397375</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>97.70</t>
+          <t>97.55</t>
         </is>
       </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>71.21</t>
+          <t>87.79</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>97.70</t>
+          <t>97.55</t>
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>71.21</t>
+          <t>87.79</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5230621</v>
+        <v>5332285</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -7896,13 +7896,13 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45848.95271990741</v>
+        <v>45859.02099537037</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>4.983333333333333</v>
+        <v>22.57722222222222</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -7916,41 +7916,41 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>U49804919</t>
+          <t>U77131121</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>88.21</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>88.21</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5537663</v>
+        <v>5230621</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>StudentViewEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7959,13 +7959,13 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45826.0434375</v>
+        <v>45854.99901620371</v>
       </c>
       <c r="E122" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2722222222222222</v>
+        <v>6.035277777777778</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -7977,54 +7977,58 @@
           <t>CGS2100.521U25</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>U49804919</t>
+        </is>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>99.31</t>
         </is>
       </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>99.31</t>
         </is>
       </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5009103</v>
+        <v>5537663</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45849.61446759259</v>
+        <v>45859.019375</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2541666666666667</v>
+        <v>0.3169444444444444</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -8036,23 +8040,35 @@
           <t>CGS2100.521U25</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>U88099159</t>
-        </is>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>42.86</t>
+        </is>
+      </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>42.86</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
       <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4957763</v>
+        <v>5009103</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -8065,13 +8081,13 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45847.0652662037</v>
+        <v>45849.85136574074</v>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F124" t="n">
-        <v>1.828888888888889</v>
+        <v>0.2541666666666667</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -8085,7 +8101,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>U64219048</t>
+          <t>U88099159</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -8099,7 +8115,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4876881</v>
+        <v>4957763</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -8112,13 +8128,13 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45849.80604166666</v>
+        <v>45857.78248842592</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3525</v>
+        <v>2.148333333333333</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -8132,7 +8148,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>U14884292</t>
+          <t>U64219048</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -8146,7 +8162,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5106229</v>
+        <v>4876881</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -8159,13 +8175,13 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45846.91260416667</v>
+        <v>45859.6321875</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>11.86777777777778</v>
+        <v>0.6119444444444444</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -8179,7 +8195,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>U95564252</t>
+          <t>U14884292</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -8193,7 +8209,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5061721</v>
+        <v>5106229</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -8206,13 +8222,13 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45838.77513888889</v>
+        <v>45858.91457175926</v>
       </c>
       <c r="E127" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>12.01611111111111</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -8226,7 +8242,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>U34561707</t>
+          <t>U95564252</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -8240,26 +8256,26 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>964585</v>
+        <v>5061721</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45849.59358796296</v>
+        <v>45838.77513888889</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F128" t="n">
-        <v>29.48361111111111</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -8273,7 +8289,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>U84383097</t>
+          <t>U34561707</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -8285,6 +8301,53 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
     </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>964585</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TeacherEnrollment</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>TeacherEnrollment</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45859.01945601852</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>32.54166666666666</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>CGS2100.521U25</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>U84383097</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
